--- a/measure-results.xlsx
+++ b/measure-results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_w_c_v_d_ven_student_tue_nl/Documents/TUE/Jaar 4/Y4Q2/2IID0 (Web Analytics)/Homework 3/2b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\webana\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Q =</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>States</t>
+  </si>
+  <si>
+    <t>User Agent</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Opera</t>
   </si>
 </sst>
 </file>
@@ -273,17 +285,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -598,28 +610,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +646,7 @@
         <v>650919</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -646,8 +659,11 @@
       <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -688,8 +704,18 @@
         <v>12</v>
       </c>
       <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -750,8 +776,23 @@
         <f>SUM(Q5:R5)</f>
         <v>0.93514246780321364</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f>553531/Totaal</f>
+        <v>0.85038384192195959</v>
+      </c>
+      <c r="W5" s="3">
+        <f>14272/Totaal</f>
+        <v>2.1925923194744661E-2</v>
+      </c>
+      <c r="X5">
+        <f>SUM(V5:W5)</f>
+        <v>0.87230976511670422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -812,8 +853,23 @@
         <f>SUM(Q6:R6)</f>
         <v>6.4857532196786388E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <f>82546/Totaal</f>
+        <v>0.12681454989023211</v>
+      </c>
+      <c r="W6" s="6">
+        <f>570/Totaal</f>
+        <v>8.7568499306365307E-4</v>
+      </c>
+      <c r="X6" s="5">
+        <f>SUM(V6:W6)</f>
+        <v>0.12769023488329576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7">
         <f>SUM(B5:B6)</f>
@@ -866,8 +922,21 @@
         <f>(SUM(S5:S6)*SUM(Q7:R7))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+      <c r="V7">
+        <f>SUM(V5:V6)</f>
+        <v>0.9771983918121917</v>
+      </c>
+      <c r="W7" s="3">
+        <f>SUM(W5:W6)</f>
+        <v>2.2801608187808315E-2</v>
+      </c>
+      <c r="X7">
+        <f>(SUM(X5:X6)*SUM(V7:W7))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,8 +965,15 @@
         <f>((Q5*R6)-(R5*Q6))/((Q5*R6)+(R5*Q6))</f>
         <v>0.96525210050325994</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <f>((V5*W6)-(W5*V6))/((V5*W6)+(W5*V6))</f>
+        <v>-0.57751642959570404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -938,8 +1014,18 @@
         <v>12</v>
       </c>
       <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>2</v>
       </c>
@@ -998,8 +1084,23 @@
         <f>SUM(Q12:R12)</f>
         <v>0.28285854307525204</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <f>83013/Totaal</f>
+        <v>0.1275319970687597</v>
+      </c>
+      <c r="W12" s="3">
+        <f>589/Totaal</f>
+        <v>9.0487449283244148E-4</v>
+      </c>
+      <c r="X12">
+        <f>SUM(V12:W12)</f>
+        <v>0.12843687156159214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1058,8 +1159,23 @@
         <f>SUM(Q13:R13)</f>
         <v>0.71714145692474796</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <f>553064/Totaal</f>
+        <v>0.84966639474343197</v>
+      </c>
+      <c r="W13" s="6">
+        <f>14253/Totaal</f>
+        <v>2.1896733694975874E-2</v>
+      </c>
+      <c r="X13" s="5">
+        <f>SUM(V13:W13)</f>
+        <v>0.87156312843840789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14">
         <f>SUM(B12:B13)</f>
@@ -1112,8 +1228,21 @@
         <f>(SUM(S12:S13)*SUM(Q14:R14))</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+      <c r="V14">
+        <f>SUM(V12:V13)</f>
+        <v>0.9771983918121917</v>
+      </c>
+      <c r="W14" s="3">
+        <f>SUM(W12:W13)</f>
+        <v>2.2801608187808315E-2</v>
+      </c>
+      <c r="X14">
+        <f>(SUM(X12:X13)*SUM(V14:W14))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,13 +1271,20 @@
         <f>((Q12*R13)-(R12*Q13))/((Q12*R13)+(R12*Q13))</f>
         <v>-0.87627703776479704</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F17" s="14" t="s">
+      <c r="V15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <f>((V12*W13)-(W12*V13))/((V12*W13)+(W12*V13))</f>
+        <v>0.56823344185782299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="11" t="s">
         <v>13</v>
       </c>
@@ -1187,8 +1323,18 @@
         <v>12</v>
       </c>
       <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
@@ -1247,8 +1393,23 @@
         <f>SUM(Q19:R19)</f>
         <v>0.81146962986178006</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f>636077/Totaal</f>
+        <v>0.9771983918121917</v>
+      </c>
+      <c r="W19" s="3">
+        <f>14823/Totaal</f>
+        <v>2.2772418688039527E-2</v>
+      </c>
+      <c r="X19">
+        <f>SUM(V19:W19)</f>
+        <v>0.99997081050023118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1306,8 +1467,23 @@
         <f>SUM(Q20:R20)</f>
         <v>0.18853037013821997</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5">
+        <f>0/Totaal</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <f>19/Totaal</f>
+        <v>2.9189499768788438E-5</v>
+      </c>
+      <c r="X20" s="5">
+        <f>SUM(V20:W20)</f>
+        <v>2.9189499768788438E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21">
         <f>SUM(B19:B20)</f>
@@ -1360,8 +1536,21 @@
         <f>(SUM(S19:S20)*SUM(Q21:R21))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21" s="4"/>
+      <c r="V21">
+        <f>SUM(V19:V20)</f>
+        <v>0.9771983918121917</v>
+      </c>
+      <c r="W21" s="3">
+        <f>SUM(W19:W20)</f>
+        <v>2.2801608187808315E-2</v>
+      </c>
+      <c r="X21">
+        <f>(SUM(X19:X20)*SUM(V21:W21))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +1579,15 @@
         <f>((Q19*R20)-(R19*Q20))/((Q19*R20)+(R19*Q20))</f>
         <v>-0.53689083885787414</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <f>((V19*W20)-(W19*V20))/((V19*W20)+(W19*V20))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1413,7 +1609,7 @@
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1641,7 @@
         <v>0.99187917390643077</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="7" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1672,7 @@
         <v>8.1208260935692455E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F28" s="4"/>
       <c r="G28">
         <f>SUM(G26:G27)</f>
@@ -1504,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1520,77 +1716,77 @@
         <v>0.53615796273437</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="18"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="17"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F34" s="16"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F36" s="15"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F40" s="16"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F41" s="16"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
